--- a/resources/statistics/db_seeder_cmd_improvement_company_3.0.4_win10.xlsx
+++ b/resources/statistics/db_seeder_cmd_improvement_company_3.0.4_win10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\db_seeder\resources\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9B2592-347A-4572-B456-FE186300892F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABD9D1D-8B94-49E4-8288-6F46BB0D7F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="db_seeder_cmd_improvement_compa" sheetId="1" r:id="rId1"/>
@@ -1001,6 +1001,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1526,7 +1529,8 @@
     <sortCondition ref="C2:C31"/>
     <sortCondition ref="A2:A31"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>